--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.04532466666666667</v>
+        <v>0.04532466666666666</v>
       </c>
       <c r="N2">
         <v>0.135974</v>
       </c>
       <c r="O2">
-        <v>0.2838196065007118</v>
+        <v>0.2097030900106722</v>
       </c>
       <c r="P2">
-        <v>0.2838196065007118</v>
+        <v>0.2097030900106722</v>
       </c>
       <c r="Q2">
-        <v>8.342580100236445</v>
+        <v>2.896753035530888</v>
       </c>
       <c r="R2">
-        <v>75.08322090212801</v>
+        <v>26.070777319778</v>
       </c>
       <c r="S2">
-        <v>0.184780918051234</v>
+        <v>0.0853056843055482</v>
       </c>
       <c r="T2">
-        <v>0.184780918051234</v>
+        <v>0.0853056843055482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,46 +596,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H3">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I3">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J3">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1143706666666667</v>
+        <v>0.1708126666666666</v>
       </c>
       <c r="N3">
-        <v>0.343112</v>
+        <v>0.5124379999999999</v>
       </c>
       <c r="O3">
-        <v>0.7161803934992882</v>
+        <v>0.7902969099893278</v>
       </c>
       <c r="P3">
-        <v>0.7161803934992883</v>
+        <v>0.7902969099893277</v>
       </c>
       <c r="Q3">
-        <v>21.05137264000711</v>
+        <v>10.91683948417622</v>
       </c>
       <c r="R3">
-        <v>189.462353760064</v>
+        <v>98.25155535758599</v>
       </c>
       <c r="S3">
-        <v>0.4662696570991145</v>
+        <v>0.3214870067378066</v>
       </c>
       <c r="T3">
-        <v>0.4662696570991146</v>
+        <v>0.3214870067378066</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>172.3302</v>
       </c>
       <c r="I4">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J4">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04532466666666667</v>
+        <v>0.04532466666666666</v>
       </c>
       <c r="N4">
         <v>0.135974</v>
       </c>
       <c r="O4">
-        <v>0.2838196065007118</v>
+        <v>0.2097030900106722</v>
       </c>
       <c r="P4">
-        <v>0.2838196065007118</v>
+        <v>0.2097030900106722</v>
       </c>
       <c r="Q4">
-        <v>2.603602957200001</v>
+        <v>2.603602957199999</v>
       </c>
       <c r="R4">
         <v>23.4324266148</v>
       </c>
       <c r="S4">
-        <v>0.05766754875493357</v>
+        <v>0.07667278818720223</v>
       </c>
       <c r="T4">
-        <v>0.05766754875493358</v>
+        <v>0.07667278818720223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J5">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1143706666666667</v>
+        <v>0.1708126666666666</v>
       </c>
       <c r="N5">
-        <v>0.343112</v>
+        <v>0.5124379999999999</v>
       </c>
       <c r="O5">
-        <v>0.7161803934992882</v>
+        <v>0.7902969099893278</v>
       </c>
       <c r="P5">
-        <v>0.7161803934992883</v>
+        <v>0.7902969099893277</v>
       </c>
       <c r="Q5">
-        <v>6.569839953600001</v>
+        <v>9.812060336399998</v>
       </c>
       <c r="R5">
-        <v>59.12855958240001</v>
+        <v>88.30854302759998</v>
       </c>
       <c r="S5">
-        <v>0.1455162603762687</v>
+        <v>0.2889526691358167</v>
       </c>
       <c r="T5">
-        <v>0.1455162603762688</v>
+        <v>0.2889526691358167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H6">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I6">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J6">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04532466666666667</v>
+        <v>0.04532466666666666</v>
       </c>
       <c r="N6">
         <v>0.135974</v>
       </c>
       <c r="O6">
-        <v>0.2838196065007118</v>
+        <v>0.2097030900106722</v>
       </c>
       <c r="P6">
-        <v>0.2838196065007118</v>
+        <v>0.2097030900106722</v>
       </c>
       <c r="Q6">
-        <v>1.867844636663778</v>
+        <v>1.620600453416666</v>
       </c>
       <c r="R6">
-        <v>16.810601729974</v>
+        <v>14.58540408075</v>
       </c>
       <c r="S6">
-        <v>0.04137113969454419</v>
+        <v>0.04772461751792175</v>
       </c>
       <c r="T6">
-        <v>0.04137113969454421</v>
+        <v>0.04772461751792175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H7">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I7">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J7">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1143706666666667</v>
+        <v>0.1708126666666666</v>
       </c>
       <c r="N7">
-        <v>0.343112</v>
+        <v>0.5124379999999999</v>
       </c>
       <c r="O7">
-        <v>0.7161803934992882</v>
+        <v>0.7902969099893278</v>
       </c>
       <c r="P7">
-        <v>0.7161803934992883</v>
+        <v>0.7902969099893277</v>
       </c>
       <c r="Q7">
-        <v>4.713253335012445</v>
+        <v>6.107470951416666</v>
       </c>
       <c r="R7">
-        <v>42.41928001511201</v>
+        <v>54.96723856275</v>
       </c>
       <c r="S7">
-        <v>0.1043944760239049</v>
+        <v>0.1798572341157044</v>
       </c>
       <c r="T7">
-        <v>0.104394476023905</v>
+        <v>0.1798572341157044</v>
       </c>
     </row>
   </sheetData>
